--- a/git_dif_excel_demo.xlsx
+++ b/git_dif_excel_demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jillvillany/Github/python-dev-setup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA25BC7-2143-B441-85DD-553E0BA19989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887074F3-1C31-BF48-A119-26E2E1146D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{16B64A56-FFE1-7041-BA1D-D21F3060A99B}"/>
+    <workbookView xWindow="2300" yWindow="1480" windowWidth="28040" windowHeight="17440" xr2:uid="{16B64A56-FFE1-7041-BA1D-D21F3060A99B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,9 +35,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>hi</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>classification</t>
+  </si>
+  <si>
+    <t>I really like the product - it's great</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>The product does what I need</t>
+  </si>
+  <si>
+    <t>This product is defective - not a fan</t>
+  </si>
+  <si>
+    <t>negative</t>
   </si>
 </sst>
 </file>
@@ -389,17 +407,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95C5DB10-38B5-144A-9629-690E524ED16C}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
